--- a/Export/LS_Model-Quick-Eval.xlsx
+++ b/Export/LS_Model-Quick-Eval.xlsx
@@ -69,11 +69,11 @@
  [ 9  3]]</t>
   </si>
   <si>
-    <t>[[48 10]
- [ 8  4]]</t>
-  </si>
-  <si>
-    <t>[[51  7]
+    <t>[[46 12]
+ [ 9  3]]</t>
+  </si>
+  <si>
+    <t>[[49  9]
  [ 8  4]]</t>
   </si>
   <si>
@@ -532,16 +532,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.7429</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0.2857</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.3333</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
-        <v>0.3077</v>
+        <v>0.2222</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -555,16 +555,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.7857</v>
+        <v>0.7571</v>
       </c>
       <c r="D5">
-        <v>0.3636</v>
+        <v>0.3077</v>
       </c>
       <c r="E5">
         <v>0.3333</v>
       </c>
       <c r="F5">
-        <v>0.3478</v>
+        <v>0.32</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
